--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3670.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3670.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.322362209179339</v>
+        <v>0.6720632314682007</v>
       </c>
       <c r="B1">
-        <v>2.147634835361234</v>
+        <v>0.5633464455604553</v>
       </c>
       <c r="C1">
-        <v>6.104557373540286</v>
+        <v>0.4193816781044006</v>
       </c>
       <c r="D1">
-        <v>3.787167335260376</v>
+        <v>0.3945804536342621</v>
       </c>
       <c r="E1">
-        <v>1.033785625537247</v>
+        <v>0.4147497415542603</v>
       </c>
     </row>
   </sheetData>
